--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.6635282829632</v>
+        <v>23.17518866666667</v>
       </c>
       <c r="H2">
-        <v>38.6635282829632</v>
+        <v>69.525566</v>
       </c>
       <c r="I2">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="J2">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.0956670574558</v>
+        <v>69.72416666666666</v>
       </c>
       <c r="N2">
-        <v>51.0956670574558</v>
+        <v>209.1725</v>
       </c>
       <c r="O2">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="P2">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="Q2">
-        <v>1975.538768412813</v>
+        <v>1615.870717126111</v>
       </c>
       <c r="R2">
-        <v>1975.538768412813</v>
+        <v>14542.836454135</v>
       </c>
       <c r="S2">
-        <v>0.06382321201542571</v>
+        <v>0.03416733384913094</v>
       </c>
       <c r="T2">
-        <v>0.06382321201542571</v>
+        <v>0.03416733384913094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.6635282829632</v>
+        <v>23.17518866666667</v>
       </c>
       <c r="H3">
-        <v>38.6635282829632</v>
+        <v>69.525566</v>
       </c>
       <c r="I3">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="J3">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.238316420794</v>
+        <v>142.7363333333333</v>
       </c>
       <c r="N3">
-        <v>142.238316420794</v>
+        <v>428.209</v>
       </c>
       <c r="O3">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="P3">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="Q3">
-        <v>5499.435169856438</v>
+        <v>3307.941454588222</v>
       </c>
       <c r="R3">
-        <v>5499.435169856438</v>
+        <v>29771.473091294</v>
       </c>
       <c r="S3">
-        <v>0.1776688073263324</v>
+        <v>0.06994590522273489</v>
       </c>
       <c r="T3">
-        <v>0.1776688073263324</v>
+        <v>0.06994590522273489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>38.6635282829632</v>
+        <v>23.17518866666667</v>
       </c>
       <c r="H4">
-        <v>38.6635282829632</v>
+        <v>69.525566</v>
       </c>
       <c r="I4">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="J4">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.033047547415</v>
+        <v>158.0830736666667</v>
       </c>
       <c r="N4">
-        <v>140.033047547415</v>
+        <v>474.249221</v>
       </c>
       <c r="O4">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="P4">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="Q4">
-        <v>5414.17169439901</v>
+        <v>3663.605057231565</v>
       </c>
       <c r="R4">
-        <v>5414.17169439901</v>
+        <v>32972.44551508409</v>
       </c>
       <c r="S4">
-        <v>0.1749142226235156</v>
+        <v>0.07746635653155785</v>
       </c>
       <c r="T4">
-        <v>0.1749142226235156</v>
+        <v>0.07746635653155785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.6635282829632</v>
+        <v>23.17518866666667</v>
       </c>
       <c r="H5">
-        <v>38.6635282829632</v>
+        <v>69.525566</v>
       </c>
       <c r="I5">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="J5">
-        <v>0.6587959688679509</v>
+        <v>0.2781252059919919</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.052671322362</v>
+        <v>197.0174863333333</v>
       </c>
       <c r="N5">
-        <v>194.052671322362</v>
+        <v>591.052459</v>
       </c>
       <c r="O5">
-        <v>0.36792836987025</v>
+        <v>0.347130027442921</v>
       </c>
       <c r="P5">
-        <v>0.36792836987025</v>
+        <v>0.347130027442921</v>
       </c>
       <c r="Q5">
-        <v>7502.760946056705</v>
+        <v>4565.917416407421</v>
       </c>
       <c r="R5">
-        <v>7502.760946056705</v>
+        <v>41093.25674766679</v>
       </c>
       <c r="S5">
-        <v>0.2423897269026772</v>
+        <v>0.09654561038856818</v>
       </c>
       <c r="T5">
-        <v>0.2423897269026772</v>
+        <v>0.09654561038856818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133897397013933</v>
+        <v>38.67778666666666</v>
       </c>
       <c r="H6">
-        <v>0.133897397013933</v>
+        <v>116.03336</v>
       </c>
       <c r="I6">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="J6">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.0956670574558</v>
+        <v>69.72416666666666</v>
       </c>
       <c r="N6">
-        <v>51.0956670574558</v>
+        <v>209.1725</v>
       </c>
       <c r="O6">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="P6">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="Q6">
-        <v>6.841576817683896</v>
+        <v>2696.776443844444</v>
       </c>
       <c r="R6">
-        <v>6.841576817683896</v>
+        <v>24270.9879946</v>
       </c>
       <c r="S6">
-        <v>0.0002210290249609605</v>
+        <v>0.05702291655930419</v>
       </c>
       <c r="T6">
-        <v>0.0002210290249609605</v>
+        <v>0.05702291655930419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133897397013933</v>
+        <v>38.67778666666666</v>
       </c>
       <c r="H7">
-        <v>0.133897397013933</v>
+        <v>116.03336</v>
       </c>
       <c r="I7">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="J7">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.238316420794</v>
+        <v>142.7363333333333</v>
       </c>
       <c r="N7">
-        <v>142.238316420794</v>
+        <v>428.209</v>
       </c>
       <c r="O7">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="P7">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="Q7">
-        <v>19.04534032438848</v>
+        <v>5520.725450248889</v>
       </c>
       <c r="R7">
-        <v>19.04534032438848</v>
+        <v>49686.52905224</v>
       </c>
       <c r="S7">
-        <v>0.0006152928066331835</v>
+        <v>0.1167348770844307</v>
       </c>
       <c r="T7">
-        <v>0.0006152928066331835</v>
+        <v>0.1167348770844307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.133897397013933</v>
+        <v>38.67778666666666</v>
       </c>
       <c r="H8">
-        <v>0.133897397013933</v>
+        <v>116.03336</v>
       </c>
       <c r="I8">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="J8">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.033047547415</v>
+        <v>158.0830736666667</v>
       </c>
       <c r="N8">
-        <v>140.033047547415</v>
+        <v>474.249221</v>
       </c>
       <c r="O8">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="P8">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="Q8">
-        <v>18.75006056252719</v>
+        <v>6114.303398890284</v>
       </c>
       <c r="R8">
-        <v>18.75006056252719</v>
+        <v>55028.73059001256</v>
       </c>
       <c r="S8">
-        <v>0.000605753280936971</v>
+        <v>0.1292859900675185</v>
       </c>
       <c r="T8">
-        <v>0.000605753280936971</v>
+        <v>0.1292859900675185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.133897397013933</v>
+        <v>38.67778666666666</v>
       </c>
       <c r="H9">
-        <v>0.133897397013933</v>
+        <v>116.03336</v>
       </c>
       <c r="I9">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="J9">
-        <v>0.002281505835398893</v>
+        <v>0.4641717285975485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.052671322362</v>
+        <v>197.0174863333333</v>
       </c>
       <c r="N9">
-        <v>194.052671322362</v>
+        <v>591.052459</v>
       </c>
       <c r="O9">
-        <v>0.36792836987025</v>
+        <v>0.347130027442921</v>
       </c>
       <c r="P9">
-        <v>0.36792836987025</v>
+        <v>0.347130027442921</v>
       </c>
       <c r="Q9">
-        <v>25.98314757366455</v>
+        <v>7620.200306003581</v>
       </c>
       <c r="R9">
-        <v>25.98314757366455</v>
+        <v>68581.80275403224</v>
       </c>
       <c r="S9">
-        <v>0.0008394307228677775</v>
+        <v>0.1611279448862951</v>
       </c>
       <c r="T9">
-        <v>0.0008394307228677775</v>
+        <v>0.1611279448862951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.8907419926349</v>
+        <v>0.1530703333333333</v>
       </c>
       <c r="H10">
-        <v>19.8907419926349</v>
+        <v>0.459211</v>
       </c>
       <c r="I10">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="J10">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.0956670574558</v>
+        <v>69.72416666666666</v>
       </c>
       <c r="N10">
-        <v>51.0956670574558</v>
+        <v>209.1725</v>
       </c>
       <c r="O10">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="P10">
-        <v>0.09687857095588639</v>
+        <v>0.122848749818507</v>
       </c>
       <c r="Q10">
-        <v>1016.330730381428</v>
+        <v>10.67270143305556</v>
       </c>
       <c r="R10">
-        <v>1016.330730381428</v>
+        <v>96.05431289749998</v>
       </c>
       <c r="S10">
-        <v>0.03283432991549973</v>
+        <v>0.0002256726042934087</v>
       </c>
       <c r="T10">
-        <v>0.03283432991549973</v>
+        <v>0.0002256726042934087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.8907419926349</v>
+        <v>0.1530703333333333</v>
       </c>
       <c r="H11">
-        <v>19.8907419926349</v>
+        <v>0.459211</v>
       </c>
       <c r="I11">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="J11">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>142.238316420794</v>
+        <v>142.7363333333333</v>
       </c>
       <c r="N11">
-        <v>142.238316420794</v>
+        <v>428.209</v>
       </c>
       <c r="O11">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="P11">
-        <v>0.2696871500771802</v>
+        <v>0.2514907089174394</v>
       </c>
       <c r="Q11">
-        <v>2829.225653392778</v>
+        <v>21.84869812211111</v>
       </c>
       <c r="R11">
-        <v>2829.225653392778</v>
+        <v>196.638283099</v>
       </c>
       <c r="S11">
-        <v>0.09140304994421461</v>
+        <v>0.0004619873081398188</v>
       </c>
       <c r="T11">
-        <v>0.09140304994421461</v>
+        <v>0.0004619873081398188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8907419926349</v>
+        <v>0.1530703333333333</v>
       </c>
       <c r="H12">
-        <v>19.8907419926349</v>
+        <v>0.459211</v>
       </c>
       <c r="I12">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="J12">
-        <v>0.3389225252966502</v>
+        <v>0.001836995530087286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>140.033047547415</v>
+        <v>158.0830736666667</v>
       </c>
       <c r="N12">
-        <v>140.033047547415</v>
+        <v>474.249221</v>
       </c>
       <c r="O12">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="P12">
-        <v>0.2655059090966834</v>
+        <v>0.2785305138211326</v>
       </c>
       <c r="Q12">
-        <v>2785.361219208007</v>
+        <v>24.19782878051456</v>
       </c>
       <c r="R12">
-        <v>2785.361219208007</v>
+        <v>217.780459024631</v>
       </c>
       <c r="S12">
-        <v>0.08998593319223079</v>
+        <v>0.0005116593088823356</v>
       </c>
       <c r="T12">
-        <v>0.08998593319223079</v>
+        <v>0.0005116593088823356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1530703333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.459211</v>
+      </c>
+      <c r="I13">
+        <v>0.001836995530087286</v>
+      </c>
+      <c r="J13">
+        <v>0.001836995530087286</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>197.0174863333333</v>
+      </c>
+      <c r="N13">
+        <v>591.052459</v>
+      </c>
+      <c r="O13">
+        <v>0.347130027442921</v>
+      </c>
+      <c r="P13">
+        <v>0.347130027442921</v>
+      </c>
+      <c r="Q13">
+        <v>30.15753230553878</v>
+      </c>
+      <c r="R13">
+        <v>271.417790749849</v>
+      </c>
+      <c r="S13">
+        <v>0.0006376763087717227</v>
+      </c>
+      <c r="T13">
+        <v>0.0006376763087717227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.32041366666667</v>
+      </c>
+      <c r="H14">
+        <v>63.961241</v>
+      </c>
+      <c r="I14">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="J14">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>69.72416666666666</v>
+      </c>
+      <c r="N14">
+        <v>209.1725</v>
+      </c>
+      <c r="O14">
+        <v>0.122848749818507</v>
+      </c>
+      <c r="P14">
+        <v>0.122848749818507</v>
+      </c>
+      <c r="Q14">
+        <v>1486.548075896944</v>
+      </c>
+      <c r="R14">
+        <v>13378.9326830725</v>
+      </c>
+      <c r="S14">
+        <v>0.0314328268057785</v>
+      </c>
+      <c r="T14">
+        <v>0.0314328268057785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.32041366666667</v>
+      </c>
+      <c r="H15">
+        <v>63.961241</v>
+      </c>
+      <c r="I15">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="J15">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>142.7363333333333</v>
+      </c>
+      <c r="N15">
+        <v>428.209</v>
+      </c>
+      <c r="O15">
+        <v>0.2514907089174394</v>
+      </c>
+      <c r="P15">
+        <v>0.2514907089174394</v>
+      </c>
+      <c r="Q15">
+        <v>3043.197671929889</v>
+      </c>
+      <c r="R15">
+        <v>27388.779047369</v>
+      </c>
+      <c r="S15">
+        <v>0.06434793930213391</v>
+      </c>
+      <c r="T15">
+        <v>0.06434793930213391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.8907419926349</v>
-      </c>
-      <c r="H13">
-        <v>19.8907419926349</v>
-      </c>
-      <c r="I13">
-        <v>0.3389225252966502</v>
-      </c>
-      <c r="J13">
-        <v>0.3389225252966502</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>194.052671322362</v>
-      </c>
-      <c r="N13">
-        <v>194.052671322362</v>
-      </c>
-      <c r="O13">
-        <v>0.36792836987025</v>
-      </c>
-      <c r="P13">
-        <v>0.36792836987025</v>
-      </c>
-      <c r="Q13">
-        <v>3859.851618254684</v>
-      </c>
-      <c r="R13">
-        <v>3859.851618254684</v>
-      </c>
-      <c r="S13">
-        <v>0.1246992122447051</v>
-      </c>
-      <c r="T13">
-        <v>0.1246992122447051</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.32041366666667</v>
+      </c>
+      <c r="H16">
+        <v>63.961241</v>
+      </c>
+      <c r="I16">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="J16">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>158.0830736666667</v>
+      </c>
+      <c r="N16">
+        <v>474.249221</v>
+      </c>
+      <c r="O16">
+        <v>0.2785305138211326</v>
+      </c>
+      <c r="P16">
+        <v>0.2785305138211326</v>
+      </c>
+      <c r="Q16">
+        <v>3370.396524271474</v>
+      </c>
+      <c r="R16">
+        <v>30333.56871844326</v>
+      </c>
+      <c r="S16">
+        <v>0.07126650791317393</v>
+      </c>
+      <c r="T16">
+        <v>0.07126650791317393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.32041366666667</v>
+      </c>
+      <c r="H17">
+        <v>63.961241</v>
+      </c>
+      <c r="I17">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="J17">
+        <v>0.2558660698803723</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>197.0174863333333</v>
+      </c>
+      <c r="N17">
+        <v>591.052459</v>
+      </c>
+      <c r="O17">
+        <v>0.347130027442921</v>
+      </c>
+      <c r="P17">
+        <v>0.347130027442921</v>
+      </c>
+      <c r="Q17">
+        <v>4200.494308193513</v>
+      </c>
+      <c r="R17">
+        <v>37804.44877374162</v>
+      </c>
+      <c r="S17">
+        <v>0.08881879585928598</v>
+      </c>
+      <c r="T17">
+        <v>0.08881879585928598</v>
       </c>
     </row>
   </sheetData>
